--- a/_Experiments/virus/UNC AAVs.xlsx
+++ b/_Experiments/virus/UNC AAVs.xlsx
@@ -4,19 +4,77 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="AAV" sheetId="1" r:id="rId1"/>
+    <sheet name="costs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Arch, Chr2, EYFP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+male/female breeder, male for prelim data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -72,18 +130,59 @@
   <si>
     <t>AAV-EF1a-DIO-EYFP</t>
   </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Quant</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TH-cre mice (male/female breeder, male for prelim data)</t>
+  </si>
+  <si>
+    <t>AAVs (Arch, Chr2, EYFP)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,19 +202,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -133,6 +244,21 @@
     <tableColumn id="2" name="Source"/>
     <tableColumn id="3" name="Purpose"/>
     <tableColumn id="4" name="Ref"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Item"/>
+    <tableColumn id="2" name="Cost" dataCellStyle="Currency"/>
+    <tableColumn id="3" name="Quant" dataDxfId="1"/>
+    <tableColumn id="4" name="Total" dataDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table2[[#This Row],[Quant]]*Table2[[#This Row],[Cost]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -427,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,14 +663,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
+        <v>220</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <f>Table2[[#This Row],[Quant]]*Table2[[#This Row],[Cost]]</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
+        <v>255</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <f>Table2[[#This Row],[Quant]]*Table2[[#This Row],[Cost]]</f>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2">
+        <f>Table2[[#This Row],[Quant]]*Table2[[#This Row],[Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2">
+        <f>Table2[[#This Row],[Quant]]*Table2[[#This Row],[Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
+        <f>Table2[[#This Row],[Quant]]*Table2[[#This Row],[Cost]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
+        <f>SUM(D2:D6)</f>
+        <v>1425</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
